--- a/advising.xlsx
+++ b/advising.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\PMG4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9F9B7B2-BC35-4CDC-ADF9-DF989BC496D6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2D6253-93D2-46EE-A8D6-5E648606E0DF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020" activeTab="1" xr2:uid="{2B466208-C5B7-41FD-95A4-6B89FD67C7E2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="75">
   <si>
     <t>student_ID</t>
   </si>
@@ -54,12 +54,6 @@
     <t>vegetable</t>
   </si>
   <si>
-    <t>jamesv</t>
-  </si>
-  <si>
-    <t>pjfernandez</t>
-  </si>
-  <si>
     <t>pickle</t>
   </si>
   <si>
@@ -84,62 +78,206 @@
     <t>professor</t>
   </si>
   <si>
-    <t>start_Time</t>
-  </si>
-  <si>
-    <t>end_Time</t>
-  </si>
-  <si>
     <t>days</t>
   </si>
   <si>
-    <t>BIT_1000</t>
-  </si>
-  <si>
-    <t>BIT_2000</t>
-  </si>
-  <si>
-    <t>BIT_3000</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>Advanced BIT</t>
-  </si>
-  <si>
-    <t>EXPERT BIT</t>
-  </si>
-  <si>
-    <t>Guy</t>
-  </si>
-  <si>
-    <t>Dude</t>
-  </si>
-  <si>
-    <t>Lady</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>TT</t>
-  </si>
-  <si>
     <t>MWF</t>
+  </si>
+  <si>
+    <t>First Year Writing</t>
+  </si>
+  <si>
+    <t>MB Fernandez</t>
+  </si>
+  <si>
+    <t>RJ Hooper</t>
+  </si>
+  <si>
+    <t>Gibbs</t>
+  </si>
+  <si>
+    <t>Skinner</t>
+  </si>
+  <si>
+    <t>Oakey</t>
+  </si>
+  <si>
+    <t>Business Calc</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Intro to Bus Analytics</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>Intro to Soc</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Simmons</t>
+  </si>
+  <si>
+    <t>Quantitative Methods</t>
+  </si>
+  <si>
+    <t>Kern</t>
+  </si>
+  <si>
+    <t>Principles of Econ</t>
+  </si>
+  <si>
+    <t>Trost</t>
+  </si>
+  <si>
+    <t>Principles of Accounting</t>
+  </si>
+  <si>
+    <t>Almond</t>
+  </si>
+  <si>
+    <t>Intro to Java</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>WF</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Asadi</t>
+  </si>
+  <si>
+    <t>Sharp</t>
+  </si>
+  <si>
+    <t>MGT Th &amp; Lead Pract</t>
+  </si>
+  <si>
+    <t>Flynn</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Bus Modeling</t>
+  </si>
+  <si>
+    <t>Seref</t>
+  </si>
+  <si>
+    <t>Supply Chain</t>
+  </si>
+  <si>
+    <t>Teets</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Marketing Management</t>
+  </si>
+  <si>
+    <t>Wertalik</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Intro to Finance</t>
+  </si>
+  <si>
+    <t>Keown</t>
+  </si>
+  <si>
+    <t>Systems Dev</t>
+  </si>
+  <si>
+    <t>Tegarden</t>
+  </si>
+  <si>
+    <t>Adv Bus Modeling</t>
+  </si>
+  <si>
+    <t>Rakes</t>
+  </si>
+  <si>
+    <t>Bus Comp and App</t>
+  </si>
+  <si>
+    <t>Badinelli</t>
+  </si>
+  <si>
+    <t>Networks</t>
+  </si>
+  <si>
+    <t>Shen</t>
+  </si>
+  <si>
+    <t>Netwroks</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Zubel</t>
+  </si>
+  <si>
+    <t>Web Based</t>
+  </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Deane</t>
+  </si>
+  <si>
+    <t>time_start</t>
+  </si>
+  <si>
+    <t>time_End</t>
+  </si>
+  <si>
+    <t>james</t>
+  </si>
+  <si>
+    <t>pj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,8 +300,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,7 +629,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -489,6 +637,8 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -513,7 +663,7 @@
         <v>705994517</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -530,7 +680,7 @@
         <v>705994518</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -564,7 +714,7 @@
         <v>705997213</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -583,125 +733,1451 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86E8071-5B08-49FD-8530-D6F0B1238F86}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>83904</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1105</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F2" s="2">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>83905</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1105</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>183249</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E3" s="3">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F3" s="2">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>83906</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1105</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>83990</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1106</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E5" s="3">
+        <v>0.37847222222222221</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>83991</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1106</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>83992</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1106</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F7" s="2">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>90140</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1524</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.1875</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>80094</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1524</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>80095</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1524</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.28125</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>87958</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1504</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E11" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>87959</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1504</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>81412</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1004</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>182097</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E13" s="3">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.15625</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>81413</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1004</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>181071</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E14" s="3">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.21875</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>83485</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2405</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H4">
+      <c r="D15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>83486</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2405</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="3">
+        <v>5.9027777777777776E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>9.375E-2</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>80098</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>80099</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>82642</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2115</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.37847222222222221</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>82643</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2115</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5.9027777777777776E-2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>9.375E-2</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>82644</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1054</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>81418</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1054</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>81419</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1054</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>83490</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2406</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>83491</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2406</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>80120</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="F26" s="3">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>80121</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5.9027777777777776E-2</v>
+      </c>
+      <c r="F27" s="3">
+        <v>9.375E-2</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>80122</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2116</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>86317</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2116</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="3">
+        <v>5.9027777777777776E-2</v>
+      </c>
+      <c r="F29" s="3">
+        <v>9.375E-2</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>86318</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2116</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>81430</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3304</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>81431</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3304</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>81432</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3424</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>81424</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3424</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>81425</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3424</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>81426</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3414</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>86502</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3414</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>86503</v>
+      </c>
+      <c r="B38" s="2">
+        <v>3414</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>84438</v>
+      </c>
+      <c r="B39" s="2">
+        <v>3104</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.15625</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>81454</v>
+      </c>
+      <c r="B40" s="2">
+        <v>3104</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>81455</v>
+      </c>
+      <c r="B41" s="2">
+        <v>3104</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>81433</v>
+      </c>
+      <c r="B42" s="2">
+        <v>3104</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>81434</v>
+      </c>
+      <c r="B43" s="2">
+        <v>4524</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>81435</v>
+      </c>
+      <c r="B44" s="2">
+        <v>4524</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F44" s="3">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>81436</v>
+      </c>
+      <c r="B45" s="2">
+        <v>3434</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>81456</v>
+      </c>
+      <c r="B46" s="2">
+        <v>3434</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>81457</v>
+      </c>
+      <c r="B47" s="2">
+        <v>3444</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F47" s="3">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>81451</v>
+      </c>
+      <c r="B48" s="2">
+        <v>3444</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>81452</v>
+      </c>
+      <c r="B49" s="2">
+        <v>4554</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>81442</v>
+      </c>
+      <c r="B50" s="2">
+        <v>4554</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F50" s="3">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>81443</v>
+      </c>
+      <c r="B51" s="2">
+        <v>4514</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F51" s="3">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <v>81449</v>
+      </c>
+      <c r="B52" s="2">
+        <v>4514</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
+        <v>81450</v>
+      </c>
+      <c r="B53" s="2">
+        <v>4444</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
+        <v>89082</v>
+      </c>
+      <c r="B54" s="2">
+        <v>4444</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <v>81444</v>
+      </c>
+      <c r="B55" s="2">
+        <v>4484</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" s="2">
         <v>1</v>
       </c>
     </row>
@@ -715,7 +2191,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -726,10 +2202,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -739,8 +2215,8 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>183249</v>
+      <c r="B2" s="2">
+        <v>83904</v>
       </c>
       <c r="C2">
         <v>705994517</v>
@@ -750,41 +2226,41 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>182097</v>
+      <c r="B3" s="2">
+        <v>83905</v>
       </c>
       <c r="C3">
-        <v>705994518</v>
+        <v>705994517</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>181071</v>
+      <c r="B4" s="2">
+        <v>83906</v>
       </c>
       <c r="C4">
-        <v>705994519</v>
+        <v>705994517</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>183311</v>
+      <c r="B5" s="2">
+        <v>83990</v>
       </c>
       <c r="C5">
-        <v>705997213</v>
+        <v>705994517</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>183499</v>
+      <c r="B6" s="2">
+        <v>83991</v>
       </c>
       <c r="C6">
         <v>705994517</v>
@@ -794,8 +2270,8 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>182281</v>
+      <c r="B7" s="2">
+        <v>83992</v>
       </c>
       <c r="C7">
         <v>705994518</v>
@@ -805,8 +2281,8 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>184224</v>
+      <c r="B8" s="2">
+        <v>90140</v>
       </c>
       <c r="C8">
         <v>705994519</v>
@@ -816,8 +2292,8 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>184797</v>
+      <c r="B9" s="2">
+        <v>83904</v>
       </c>
       <c r="C9">
         <v>705997213</v>
@@ -827,8 +2303,8 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>181412</v>
+      <c r="B10" s="2">
+        <v>83905</v>
       </c>
       <c r="C10">
         <v>705994517</v>
@@ -838,8 +2314,8 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>184659</v>
+      <c r="B11" s="2">
+        <v>83906</v>
       </c>
       <c r="C11">
         <v>705994518</v>
@@ -849,8 +2325,8 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>183772</v>
+      <c r="B12" s="2">
+        <v>83990</v>
       </c>
       <c r="C12">
         <v>705994519</v>
@@ -860,8 +2336,8 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>184291</v>
+      <c r="B13" s="2">
+        <v>83991</v>
       </c>
       <c r="C13">
         <v>705997213</v>
@@ -871,8 +2347,8 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>183885</v>
+      <c r="B14" s="2">
+        <v>83992</v>
       </c>
       <c r="C14">
         <v>705994517</v>
@@ -882,8 +2358,8 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>181478</v>
+      <c r="B15" s="2">
+        <v>90140</v>
       </c>
       <c r="C15">
         <v>705994518</v>
@@ -899,7 +2375,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -912,7 +2388,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -920,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
